--- a/baseline_model_workshop/result/result_all.xlsx
+++ b/baseline_model_workshop/result/result_all.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_Term_Housing_Planning\baseline_model_workshop\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model_workshop\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F6E4C6-1E56-4612-8B2B-5E789EA3BEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06B7C88-D323-41CE-A979-067D952FF719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -127,9 +127,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -416,26 +413,26 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -473,7 +470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
@@ -504,7 +501,7 @@
       <c r="I2" s="2">
         <v>246603012</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <f>I2/B2</f>
         <v>0.353251257415583</v>
       </c>
@@ -516,7 +513,7 @@
         <v>0.12485486900923223</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0.5</v>
       </c>
@@ -547,7 +544,7 @@
       <c r="I3" s="2">
         <v>406236833.30872297</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <f t="shared" ref="J3:J6" si="3">I3/B3</f>
         <v>0.34206036406323814</v>
       </c>
@@ -559,7 +556,7 @@
         <v>0.11397077650389928</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -590,7 +587,7 @@
       <c r="I4" s="2">
         <v>868127699.281721</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f t="shared" si="3"/>
         <v>0.53489937908180984</v>
       </c>
@@ -602,7 +599,7 @@
         <v>0.16155829610450745</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -633,7 +630,7 @@
       <c r="I5" s="2">
         <v>1125018710.15097</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f t="shared" si="3"/>
         <v>0.62163844130894763</v>
       </c>
@@ -645,7 +642,7 @@
         <v>0.18060979999411084</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -676,7 +673,7 @@
       <c r="I6" s="2">
         <v>1158039202.5948</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f t="shared" si="3"/>
         <v>0.6117486372818346</v>
       </c>

--- a/baseline_model_workshop/result/result_all.xlsx
+++ b/baseline_model_workshop/result/result_all.xlsx
@@ -5,15 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model_workshop\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_Term_Housing_Planning\baseline_model_workshop\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06B7C88-D323-41CE-A979-067D952FF719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C354485C-196C-42F5-BB87-B277FE9D3909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId1"/>
+    <sheet name="Sensitive_shortage" sheetId="1" r:id="rId2"/>
+    <sheet name="Fairness" sheetId="3" r:id="rId3"/>
+    <sheet name="Fairness_percentage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>OPT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
   <si>
     <t>Operation_Cost</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Replenish_Cost</t>
   </si>
   <si>
-    <t>Victim_value</t>
-  </si>
-  <si>
     <t>factor</t>
   </si>
   <si>
@@ -71,14 +68,47 @@
     <t>Replenish_Cost_per</t>
   </si>
   <si>
-    <t>Victim_value_per</t>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Perfect</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Total_Cost</t>
+  </si>
+  <si>
+    <t>Fairness</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>County</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="167" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -87,6 +117,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -115,7 +153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -127,6 +165,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -409,284 +457,1134 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7171310B-BBCA-4657-8430-EE9ED976BD3D}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2">
+        <f>I2+G2+E2+C2</f>
+        <v>958789573.82273269</v>
+      </c>
+      <c r="C2" s="2">
+        <v>75921419.235589802</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2/B2</f>
+        <v>7.9184652512321388E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>55720893.420000002</v>
+      </c>
+      <c r="F2" s="3">
+        <f>E2/B2</f>
+        <v>5.8115873327489943E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <f>G2/B2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>827147261.16714299</v>
+      </c>
+      <c r="J2" s="3">
+        <f>I2/B2</f>
+        <v>0.86269947416018877</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B4" si="0">I3+G3+E3+C3</f>
+        <v>1011630832.5484484</v>
+      </c>
+      <c r="C3" s="2">
+        <v>72677394.593070507</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D4" si="1">C3/B3</f>
+        <v>7.1841814478889834E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>88052852.699999899</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F4" si="2">E3/B3</f>
+        <v>8.7040499228539403E-2</v>
+      </c>
+      <c r="G3" s="2">
+        <v>58894440</v>
+      </c>
+      <c r="H3" s="3">
+        <f>G3/B3</f>
+        <v>5.8217324052526304E-2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>792006145.25537801</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J4" si="3">I3/B3</f>
+        <v>0.78290036224004445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>264860603553.50073</v>
+      </c>
+      <c r="C4" s="2">
+        <v>75921419.235589802</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8664670478353719E-4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>263957534873.09799</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="2"/>
+        <v>0.99659040012638078</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" ref="H3:H4" si="4">G4/C4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>827147261.16715801</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="3"/>
+        <v>3.1229531688357634E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J6"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
       <c r="B2" s="2">
-        <v>698095213.60000002</v>
+        <f t="shared" ref="B2:B3" si="0">C2+E2+G2+I2</f>
+        <v>459626594.45667988</v>
       </c>
       <c r="C2" s="2">
-        <v>22441648.68</v>
+        <v>13389520.518529899</v>
       </c>
       <c r="D2" s="3">
         <f>C2/B2</f>
-        <v>3.2146973998390407E-2</v>
+        <v>2.9131300668877789E-2</v>
       </c>
       <c r="E2" s="2">
-        <v>128709688.2</v>
+        <v>22142870.039999999</v>
       </c>
       <c r="F2" s="4">
         <f>E2/B2</f>
-        <v>0.18437268397280412</v>
+        <v>4.8175780746923205E-2</v>
       </c>
       <c r="G2" s="2">
-        <v>387501451.19999999</v>
+        <v>277651538.39999998</v>
       </c>
       <c r="H2" s="4">
         <f>G2/B2</f>
-        <v>0.55508395366542873</v>
+        <v>0.6040806640621158</v>
       </c>
       <c r="I2" s="2">
-        <v>246603012</v>
+        <v>146442665.49814999</v>
       </c>
       <c r="J2" s="4">
         <f>I2/B2</f>
-        <v>0.353251257415583</v>
-      </c>
-      <c r="K2" s="2">
-        <v>87160586.450000003</v>
-      </c>
-      <c r="L2" s="4">
-        <f>K2/B2</f>
-        <v>0.12485486900923223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.31861225452208319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0.5</v>
       </c>
       <c r="B3" s="2">
-        <v>1187617379.81902</v>
+        <f t="shared" si="0"/>
+        <v>888819539.91536665</v>
       </c>
       <c r="C3" s="2">
-        <v>36929262.877802901</v>
+        <v>51755575.382894702</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D6" si="0">C3/B3</f>
-        <v>3.1095252987481978E-2</v>
+        <f t="shared" ref="D3:D6" si="1">C3/B3</f>
+        <v>5.8229565236406558E-2</v>
       </c>
       <c r="E3" s="2">
-        <v>150788556.59999901</v>
+        <v>40708447.499999903</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F6" si="1">E3/B3</f>
-        <v>0.12696728690765502</v>
+        <f t="shared" ref="F3:F6" si="2">E3/B3</f>
+        <v>4.5800576688352461E-2</v>
       </c>
       <c r="G3" s="2">
-        <v>729016402</v>
+        <v>231913958</v>
       </c>
       <c r="H3" s="4">
-        <f t="shared" ref="H3:H6" si="2">G3/B3</f>
-        <v>0.61384787254552819</v>
+        <f t="shared" ref="H3:H6" si="3">G3/B3</f>
+        <v>0.26092355937863704</v>
       </c>
       <c r="I3" s="2">
-        <v>406236833.30872297</v>
+        <v>564441559.03247201</v>
       </c>
       <c r="J3" s="4">
-        <f t="shared" ref="J3:J6" si="3">I3/B3</f>
-        <v>0.34206036406323814</v>
-      </c>
-      <c r="K3" s="2">
-        <v>135353674.9675</v>
-      </c>
-      <c r="L3" s="4">
-        <f t="shared" ref="L3:L6" si="4">K3/B3</f>
-        <v>0.11397077650389928</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+        <f t="shared" ref="J3:J6" si="4">I3/B3</f>
+        <v>0.63504629869660389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>1622973839.99944</v>
+        <f>C4+E4+G4+I4</f>
+        <v>1011630832.5484484</v>
       </c>
       <c r="C4" s="2">
-        <v>79335625.230220795</v>
+        <v>72677394.593070507</v>
       </c>
       <c r="D4" s="3">
-        <f t="shared" si="0"/>
-        <v>4.8882873694531127E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.1841814478889834E-2</v>
       </c>
       <c r="E4" s="2">
-        <v>433259783.69999999</v>
+        <v>88052852.699999899</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" si="1"/>
-        <v>0.26695426199854799</v>
+        <f t="shared" si="2"/>
+        <v>8.7040499228539403E-2</v>
       </c>
       <c r="G4" s="2">
-        <v>504455619.99999797</v>
+        <v>58894440</v>
       </c>
       <c r="H4" s="4">
-        <f t="shared" si="2"/>
-        <v>0.31082178132961902</v>
+        <f t="shared" si="3"/>
+        <v>5.8217324052526304E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>868127699.281721</v>
+        <v>792006145.25537801</v>
       </c>
       <c r="J4" s="4">
-        <f t="shared" si="3"/>
-        <v>0.53489937908180984</v>
-      </c>
-      <c r="K4" s="2">
-        <v>262204888.21249899</v>
-      </c>
-      <c r="L4" s="4">
         <f t="shared" si="4"/>
-        <v>0.16155829610450745</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.78290036224004445</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>1809763739.4851</v>
+        <f t="shared" ref="B5:B6" si="5">C5+E5+G5+I5</f>
+        <v>1030016833.1027318</v>
       </c>
       <c r="C5" s="2">
-        <v>103008999.659127</v>
+        <v>75921419.235589802</v>
       </c>
       <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>5.691847914271634E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.3708911151374887E-2</v>
       </c>
       <c r="E5" s="2">
-        <v>797916296.69999897</v>
+        <v>126948152.7</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="1"/>
-        <v>0.44089528334069505</v>
+        <f t="shared" si="2"/>
+        <v>0.12324861945954085</v>
       </c>
       <c r="G5" s="2">
-        <v>110680800</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="2"/>
-        <v>6.1157596201750646E-2</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
-        <v>1125018710.15097</v>
+        <v>827147261.16714203</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="3"/>
-        <v>0.62163844130894763</v>
-      </c>
-      <c r="K5" s="2">
-        <v>326861067.02499801</v>
-      </c>
-      <c r="L5" s="4">
         <f t="shared" si="4"/>
-        <v>0.18060979999411084</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+        <v>0.8030424693890843</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>1892998418.0108399</v>
+        <f t="shared" si="5"/>
+        <v>1030016833.1027318</v>
       </c>
       <c r="C6" s="2">
-        <v>106118118.84104399</v>
+        <v>75921419.235589802</v>
       </c>
       <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>5.6058218449306876E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.3708911151374887E-2</v>
       </c>
       <c r="E6" s="2">
-        <v>963772638.59999895</v>
+        <v>126948152.7</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="1"/>
-        <v>0.50912490440046421</v>
+        <f t="shared" si="2"/>
+        <v>0.12324861945954085</v>
       </c>
       <c r="G6" s="2">
-        <v>2.8954616482224E-10</v>
+        <v>0</v>
       </c>
       <c r="H6" s="4">
-        <f t="shared" si="2"/>
-        <v>1.5295636914820811E-19</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="I6" s="2">
-        <v>1158039202.5948</v>
+        <v>827147261.16714203</v>
       </c>
       <c r="J6" s="4">
-        <f t="shared" si="3"/>
-        <v>0.6117486372818346</v>
-      </c>
-      <c r="K6" s="2">
-        <v>334931542.02499801</v>
-      </c>
-      <c r="L6" s="4">
         <f t="shared" si="4"/>
-        <v>0.17693176013160306</v>
+        <v>0.8030424693890843</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E693D507-B5AA-4412-B2C5-12DBBE5F4A42}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2">
+        <f>I2+G2+E2+C2</f>
+        <v>1011630832.5484484</v>
+      </c>
+      <c r="C2" s="2">
+        <v>72677394.593070507</v>
+      </c>
+      <c r="D2" s="3">
+        <f>C2/B2</f>
+        <v>7.1841814478889834E-2</v>
+      </c>
+      <c r="E2" s="2">
+        <v>88052852.699999899</v>
+      </c>
+      <c r="F2" s="3">
+        <f>E2/B2</f>
+        <v>8.7040499228539403E-2</v>
+      </c>
+      <c r="G2" s="2">
+        <v>58894440</v>
+      </c>
+      <c r="H2" s="3">
+        <f>G2/B2</f>
+        <v>5.8217324052526304E-2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>792006145.25537801</v>
+      </c>
+      <c r="J2" s="3">
+        <f>I2/B2</f>
+        <v>0.78290036224004445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2">
+        <f>I3+G3+E3+C3</f>
+        <v>1030016833.1027329</v>
+      </c>
+      <c r="C3" s="2">
+        <v>75921419.235589907</v>
+      </c>
+      <c r="D3" s="3">
+        <f>C3/B3</f>
+        <v>7.3708911151374915E-2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>126948152.7</v>
+      </c>
+      <c r="F3" s="3">
+        <f>E3/B3</f>
+        <v>0.12324861945954073</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <f>G3/B3</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
+        <v>827147261.16714299</v>
+      </c>
+      <c r="J3" s="3">
+        <f>I3/B3</f>
+        <v>0.8030424693890843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" ref="B4" si="0">I4+G4+E4+C4</f>
+        <v>1011899999.7116258</v>
+      </c>
+      <c r="C4" s="2">
+        <v>72698451.924412295</v>
+      </c>
+      <c r="D4" s="3">
+        <f t="shared" ref="D4" si="1">C4/B4</f>
+        <v>7.1843514127018587E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>88080897.060000002</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" ref="F4" si="2">E4/B4</f>
+        <v>8.7045060860857351E-2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>59114505.471834697</v>
+      </c>
+      <c r="H4" s="3">
+        <f>G4/B4</f>
+        <v>5.8419315632652749E-2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>792006145.25537896</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" ref="J4" si="3">I4/B4</f>
+        <v>0.78269210937947142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5048DEDB-5048-49DF-86F9-4DCBDC438843}">
+  <dimension ref="A1:AU8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10</v>
+      </c>
+      <c r="M2" s="1">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1">
+        <v>12</v>
+      </c>
+      <c r="O2" s="1">
+        <v>13</v>
+      </c>
+      <c r="P2" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>15</v>
+      </c>
+      <c r="R2" s="1">
+        <v>16</v>
+      </c>
+      <c r="S2" s="1">
+        <v>17</v>
+      </c>
+      <c r="T2" s="1">
+        <v>18</v>
+      </c>
+      <c r="U2" s="1">
+        <v>19</v>
+      </c>
+      <c r="V2" s="1">
+        <v>20</v>
+      </c>
+      <c r="W2" s="1">
+        <v>21</v>
+      </c>
+      <c r="X2" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>33</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO2" s="1">
+        <v>39</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>41</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>43</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>44</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0.26956521739130401</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.27472527472527403</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0.25925925925925902</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0.26415094339622602</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.26966292134831399</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.194444444444444</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.26415094339622602</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0.30303030303030298</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0.314285714285714</v>
+      </c>
+      <c r="M3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.23076923076923</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0.26470588235294101</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0.25714285714285701</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R3" s="6">
+        <v>0.22448979591836701</v>
+      </c>
+      <c r="S3" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="T3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U3" s="6">
+        <v>0.28155339805825202</v>
+      </c>
+      <c r="V3" s="6">
+        <v>0.25961538461538403</v>
+      </c>
+      <c r="W3" s="6">
+        <v>0.26086956521739102</v>
+      </c>
+      <c r="X3" s="6">
+        <v>0.236363636363636</v>
+      </c>
+      <c r="Y3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Z3" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AA3" s="6">
+        <v>0.265306122448979</v>
+      </c>
+      <c r="AB3" s="6">
+        <v>0.249999999999999</v>
+      </c>
+      <c r="AC3" s="6">
+        <v>0.240384615384615</v>
+      </c>
+      <c r="AD3" s="6">
+        <v>0.22772277227722701</v>
+      </c>
+      <c r="AE3" s="6">
+        <v>0.23076923076923</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>0.30188679245283001</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>0.26041666666666602</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AI3" s="7">
+        <v>0.22950819672131101</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>0.35294117647058798</v>
+      </c>
+      <c r="AK3" s="7">
+        <v>0.23958333333333301</v>
+      </c>
+      <c r="AL3" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>0.25892857142857101</v>
+      </c>
+      <c r="AN3" s="7">
+        <v>0.27173913043478198</v>
+      </c>
+      <c r="AO3" s="7">
+        <v>0.28301886792452802</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>0.24175824175824101</v>
+      </c>
+      <c r="AQ3" s="7">
+        <v>0.223300970873786</v>
+      </c>
+      <c r="AR3" s="7">
+        <v>0.26470588235294101</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AT3" s="7">
+        <v>0.28301886792452802</v>
+      </c>
+      <c r="AU3" s="7">
+        <v>0.23913043478260801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="I4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="M4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="R4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="S4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="T4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="W4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="X4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="Z4" s="6">
+        <v>-1</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AB4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AD4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AE4" s="6">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AH4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AI4" s="7">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AJ4" s="7">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AK4" s="7">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AL4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AM4" s="7">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AN4" s="7">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AO4" s="7">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AR4" s="7">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AS4" s="7">
+        <v>-1</v>
+      </c>
+      <c r="AT4" s="7">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AU4" s="7">
+        <v>0.26600011232058701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0.98476727471278402</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/baseline_model_workshop/result/result_all.xlsx
+++ b/baseline_model_workshop/result/result_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shengyc\Documents\GitHub\Long_Term_Housing_Planning\baseline_model_workshop\result\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yin\Desktop\bay\Long_Term_Housing_Planning\baseline_model_workshop\result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C354485C-196C-42F5-BB87-B277FE9D3909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F82FC978-175C-4F55-8AFB-E436CA0AB6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1068" yWindow="-108" windowWidth="29760" windowHeight="17496" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="22">
   <si>
     <t>Operation_Cost</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>County</t>
+  </si>
+  <si>
+    <t>Set_up_Cost</t>
+  </si>
+  <si>
+    <t>Set_up_Cost_per</t>
   </si>
 </sst>
 </file>
@@ -106,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -153,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -161,20 +167,19 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -458,28 +463,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7171310B-BBCA-4657-8430-EE9ED976BD3D}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection sqref="A1:J4"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -487,140 +493,205 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="2">
-        <f>I2+G2+E2+C2</f>
-        <v>958789573.82273269</v>
+        <f>K2+I2+G2+E2+C2</f>
+        <v>576447985.46000004</v>
       </c>
       <c r="C2" s="2">
-        <v>75921419.235589802</v>
+        <v>205847520.5</v>
       </c>
       <c r="D2" s="3">
         <f>C2/B2</f>
-        <v>7.9184652512321388E-2</v>
+        <v>0.35709643487735604</v>
       </c>
       <c r="E2" s="2">
+        <v>75921419.239999995</v>
+      </c>
+      <c r="F2" s="7">
+        <f>E2/B2</f>
+        <v>0.13170558516119268</v>
+      </c>
+      <c r="G2" s="2">
         <v>55720893.420000002</v>
       </c>
-      <c r="F2" s="3">
-        <f>E2/B2</f>
-        <v>5.8115873327489943E-2</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
+      <c r="H2" s="7">
         <f>G2/B2</f>
-        <v>0</v>
+        <v>9.6662482696570198E-2</v>
       </c>
       <c r="I2" s="2">
-        <v>827147261.16714299</v>
-      </c>
-      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
         <f>I2/B2</f>
-        <v>0.86269947416018877</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>238958152.30000001</v>
+      </c>
+      <c r="L2" s="7">
+        <f>K2/B2</f>
+        <v>0.41453549726488098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" ref="B3:B4" si="0">I3+G3+E3+C3</f>
-        <v>1011630832.5484484</v>
+        <f t="shared" ref="B3:B4" si="0">K3+I3+G3+E3+C3</f>
+        <v>1318790663.289717</v>
       </c>
       <c r="C3" s="2">
-        <v>72677394.593070507</v>
+        <v>459566909.99999899</v>
       </c>
       <c r="D3" s="3">
         <f t="shared" ref="D3:D4" si="1">C3/B3</f>
-        <v>7.1841814478889834E-2</v>
+        <v>0.34847601123715233</v>
       </c>
       <c r="E3" s="2">
-        <v>88052852.699999899</v>
-      </c>
-      <c r="F3" s="3">
+        <v>43638880.594717897</v>
+      </c>
+      <c r="F3" s="7">
         <f t="shared" ref="F3:F4" si="2">E3/B3</f>
-        <v>8.7040499228539403E-2</v>
+        <v>3.3090073966599763E-2</v>
       </c>
       <c r="G3" s="2">
-        <v>58894440</v>
-      </c>
-      <c r="H3" s="3">
-        <f>G3/B3</f>
-        <v>5.8217324052526304E-2</v>
+        <v>32387600.879999999</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H4" si="3">G3/B3</f>
+        <v>2.4558560946442619E-2</v>
       </c>
       <c r="I3" s="2">
-        <v>792006145.25537801</v>
-      </c>
-      <c r="J3" s="3">
-        <f t="shared" ref="J3:J4" si="3">I3/B3</f>
-        <v>0.78290036224004445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>633566664</v>
+      </c>
+      <c r="J3" s="7">
+        <f>I3/B3</f>
+        <v>0.48041488436047236</v>
+      </c>
+      <c r="K3" s="2">
+        <v>149630607.815</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" ref="L3:L4" si="4">K3/B3</f>
+        <v>0.11346046948933287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="2">
         <f t="shared" si="0"/>
-        <v>264860603553.50073</v>
+        <v>1837817876.8916099</v>
       </c>
       <c r="C4" s="2">
-        <v>75921419.235589802</v>
+        <v>797093795.99999905</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" si="1"/>
-        <v>2.8664670478353719E-4</v>
+        <v>0.43371751141531079</v>
       </c>
       <c r="E4" s="2">
-        <v>263957534873.09799</v>
-      </c>
-      <c r="F4" s="3">
+        <v>64534160.892991103</v>
+      </c>
+      <c r="F4" s="7">
         <f t="shared" si="2"/>
-        <v>0.99659040012638078</v>
+        <v>3.5114557162835333E-2</v>
       </c>
       <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <f t="shared" ref="H3:H4" si="4">G4/C4</f>
-        <v>0</v>
+        <v>61839390.863999903</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="3"/>
+        <v>3.3648269309792464E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>827147261.16715801</v>
-      </c>
-      <c r="J4" s="3">
-        <f t="shared" si="3"/>
-        <v>3.1229531688357634E-3</v>
-      </c>
+        <v>210595987.19999999</v>
+      </c>
+      <c r="J4" s="7">
+        <f>I4/B4</f>
+        <v>0.11459023761167844</v>
+      </c>
+      <c r="K4" s="1">
+        <v>703754541.93462002</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" si="4"/>
+        <v>0.38292942450038303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -629,27 +700,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -657,214 +728,300 @@
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0.2</v>
       </c>
       <c r="B2" s="2">
-        <f t="shared" ref="B2:B3" si="0">C2+E2+G2+I2</f>
-        <v>459626594.45667988</v>
+        <f>E2+G2+I2+K2+C2</f>
+        <v>661992586.80999994</v>
       </c>
       <c r="C2" s="2">
-        <v>13389520.518529899</v>
-      </c>
-      <c r="D2" s="3">
+        <v>185216010</v>
+      </c>
+      <c r="D2" s="7">
         <f>C2/B2</f>
-        <v>2.9131300668877789E-2</v>
+        <v>0.27978562553474529</v>
       </c>
       <c r="E2" s="2">
-        <v>22142870.039999999</v>
-      </c>
-      <c r="F2" s="4">
+        <v>12761813.33</v>
+      </c>
+      <c r="F2" s="7">
         <f>E2/B2</f>
-        <v>4.8175780746923205E-2</v>
+        <v>1.927787951749798E-2</v>
       </c>
       <c r="G2" s="2">
-        <v>277651538.39999998</v>
-      </c>
-      <c r="H2" s="4">
+        <v>15405810.779999999</v>
+      </c>
+      <c r="H2" s="3">
         <f>G2/B2</f>
-        <v>0.6040806640621158</v>
+        <v>2.3271878094945582E-2</v>
       </c>
       <c r="I2" s="2">
-        <v>146442665.49814999</v>
-      </c>
-      <c r="J2" s="4">
+        <v>308840412</v>
+      </c>
+      <c r="J2" s="3">
         <f>I2/B2</f>
-        <v>0.31861225452208319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.4665315264151757</v>
+      </c>
+      <c r="K2" s="2">
+        <v>139768540.69999999</v>
+      </c>
+      <c r="L2" s="3">
+        <f>K2/B2</f>
+        <v>0.21113309043763551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0.5</v>
       </c>
       <c r="B3" s="2">
-        <f t="shared" si="0"/>
-        <v>888819539.91536665</v>
+        <f t="shared" ref="B3:B6" si="0">E3+G3+I3+K3+C3</f>
+        <v>1092242678.76</v>
       </c>
       <c r="C3" s="2">
-        <v>51755575.382894702</v>
-      </c>
-      <c r="D3" s="3">
+        <v>243699720</v>
+      </c>
+      <c r="D3" s="7">
         <f t="shared" ref="D3:D6" si="1">C3/B3</f>
-        <v>5.8229565236406558E-2</v>
+        <v>0.22311865736345987</v>
       </c>
       <c r="E3" s="2">
-        <v>40708447.499999903</v>
-      </c>
-      <c r="F3" s="4">
+        <v>23103436.800000001</v>
+      </c>
+      <c r="F3" s="7">
         <f t="shared" ref="F3:F6" si="2">E3/B3</f>
-        <v>4.5800576688352461E-2</v>
+        <v>2.1152292662862105E-2</v>
       </c>
       <c r="G3" s="2">
-        <v>231913958</v>
-      </c>
-      <c r="H3" s="4">
+        <v>17275208.460000001</v>
+      </c>
+      <c r="H3" s="3">
         <f t="shared" ref="H3:H6" si="3">G3/B3</f>
-        <v>0.26092355937863704</v>
+        <v>1.5816273064528277E-2</v>
       </c>
       <c r="I3" s="2">
-        <v>564441559.03247201</v>
-      </c>
-      <c r="J3" s="4">
+        <v>555276188</v>
+      </c>
+      <c r="J3" s="3">
         <f t="shared" ref="J3:J6" si="4">I3/B3</f>
-        <v>0.63504629869660389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.50838169831487756</v>
+      </c>
+      <c r="K3" s="2">
+        <v>252888125.5</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L6" si="5">K3/B3</f>
+        <v>0.23153107859427224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="2">
-        <f>C4+E4+G4+I4</f>
-        <v>1011630832.5484484</v>
+        <f t="shared" si="0"/>
+        <v>1645807788.6142578</v>
       </c>
       <c r="C4" s="2">
-        <v>72677394.593070507</v>
-      </c>
-      <c r="D4" s="3">
+        <v>459566909.99999899</v>
+      </c>
+      <c r="D4" s="7">
         <f t="shared" si="1"/>
-        <v>7.1841814478889834E-2</v>
+        <v>0.2792348615550948</v>
       </c>
       <c r="E4" s="2">
-        <v>88052852.699999899</v>
-      </c>
-      <c r="F4" s="4">
+        <v>43638880.594717897</v>
+      </c>
+      <c r="F4" s="7">
         <f t="shared" si="2"/>
-        <v>8.7040499228539403E-2</v>
+        <v>2.6515174430825298E-2</v>
       </c>
       <c r="G4" s="2">
-        <v>58894440</v>
-      </c>
-      <c r="H4" s="4">
+        <v>32387600.879999999</v>
+      </c>
+      <c r="H4" s="3">
         <f t="shared" si="3"/>
-        <v>5.8217324052526304E-2</v>
+        <v>1.967884773912135E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>792006145.25537801</v>
-      </c>
-      <c r="J4" s="4">
+        <v>633566664</v>
+      </c>
+      <c r="J4" s="3">
         <f t="shared" si="4"/>
-        <v>0.78290036224004445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.38495787198422021</v>
+      </c>
+      <c r="K4" s="2">
+        <v>476647733.13954097</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="5"/>
+        <v>0.28961324429073837</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ref="B5:B6" si="5">C5+E5+G5+I5</f>
-        <v>1030016833.1027318</v>
+        <f t="shared" si="0"/>
+        <v>2044395908.02</v>
       </c>
       <c r="C5" s="2">
-        <v>75921419.235589802</v>
-      </c>
-      <c r="D5" s="3">
+        <v>763614720</v>
+      </c>
+      <c r="D5" s="7">
         <f t="shared" si="1"/>
-        <v>7.3708911151374887E-2</v>
+        <v>0.37351606751138622</v>
       </c>
       <c r="E5" s="2">
-        <v>126948152.7</v>
-      </c>
-      <c r="F5" s="4">
+        <v>63301412.859999999</v>
+      </c>
+      <c r="F5" s="7">
         <f t="shared" si="2"/>
-        <v>0.12324861945954085</v>
+        <v>3.0963382685160769E-2</v>
       </c>
       <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
+        <v>58685730.960000001</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2.8705658590775212E-2</v>
       </c>
       <c r="I5" s="2">
-        <v>827147261.16714203</v>
-      </c>
-      <c r="J5" s="4">
+        <v>468936048</v>
+      </c>
+      <c r="J5" s="3">
         <f t="shared" si="4"/>
-        <v>0.8030424693890843</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.22937633858510564</v>
+      </c>
+      <c r="K5" s="2">
+        <v>689857996.20000005</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="5"/>
+        <v>0.33743855262757222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>2299219852.5900002</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1052011260</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.45755139892992042</v>
+      </c>
+      <c r="E6" s="2">
+        <v>72677394.590000004</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="2"/>
+        <v>3.1609589012608415E-2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>88052852.700000003</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="3"/>
+        <v>3.8296839078181752E-2</v>
+      </c>
+      <c r="I6" s="2">
+        <v>294472200</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="4"/>
+        <v>0.12807483358682997</v>
+      </c>
+      <c r="K6" s="2">
+        <v>792006145.29999995</v>
+      </c>
+      <c r="L6" s="3">
         <f t="shared" si="5"/>
-        <v>1030016833.1027318</v>
-      </c>
-      <c r="C6" s="2">
-        <v>75921419.235589802</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="1"/>
-        <v>7.3708911151374887E-2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>126948152.7</v>
-      </c>
-      <c r="F6" s="4">
-        <f t="shared" si="2"/>
-        <v>0.12324861945954085</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>827147261.16714203</v>
-      </c>
-      <c r="J6" s="4">
-        <f t="shared" si="4"/>
-        <v>0.8030424693890843</v>
-      </c>
+        <v>0.34446733939245938</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -874,27 +1031,30 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E693D507-B5AA-4412-B2C5-12DBBE5F4A42}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -902,148 +1062,210 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="2">
-        <f>I2+G2+E2+C2</f>
-        <v>1011630832.5484484</v>
+        <f>K2+I2+G2+E2+C2</f>
+        <v>1645807788.6142581</v>
       </c>
       <c r="C2" s="2">
-        <v>72677394.593070507</v>
-      </c>
-      <c r="D2" s="3">
+        <v>459566909.99999899</v>
+      </c>
+      <c r="D2" s="7">
         <f>C2/B2</f>
-        <v>7.1841814478889834E-2</v>
+        <v>0.27923486155509475</v>
       </c>
       <c r="E2" s="2">
-        <v>88052852.699999899</v>
-      </c>
-      <c r="F2" s="3">
+        <v>43638880.594717897</v>
+      </c>
+      <c r="F2" s="7">
         <f>E2/B2</f>
-        <v>8.7040499228539403E-2</v>
+        <v>2.6515174430825295E-2</v>
       </c>
       <c r="G2" s="2">
-        <v>58894440</v>
-      </c>
-      <c r="H2" s="3">
+        <v>32387600.879999999</v>
+      </c>
+      <c r="H2" s="7">
         <f>G2/B2</f>
-        <v>5.8217324052526304E-2</v>
+        <v>1.967884773912135E-2</v>
       </c>
       <c r="I2" s="2">
-        <v>792006145.25537801</v>
-      </c>
-      <c r="J2" s="3">
+        <v>633566664</v>
+      </c>
+      <c r="J2" s="7">
         <f>I2/B2</f>
-        <v>0.78290036224004445</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.38495787198422016</v>
+      </c>
+      <c r="K2" s="2">
+        <v>476647733.13954097</v>
+      </c>
+      <c r="L2" s="7">
+        <f>K2/B2</f>
+        <v>0.28961324429073837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B3" s="2">
-        <f>I3+G3+E3+C3</f>
-        <v>1030016833.1027329</v>
+        <f t="shared" ref="B3:B4" si="0">K3+I3+G3+E3+C3</f>
+        <v>2217907573.3800001</v>
       </c>
       <c r="C3" s="2">
-        <v>75921419.235589907</v>
-      </c>
-      <c r="D3" s="3">
-        <f>C3/B3</f>
-        <v>7.3708911151374915E-2</v>
+        <v>1044514410</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D4" si="1">C3/B3</f>
+        <v>0.47094586922222503</v>
       </c>
       <c r="E3" s="2">
-        <v>126948152.7</v>
-      </c>
-      <c r="F3" s="3">
+        <v>72440025.260000005</v>
+      </c>
+      <c r="F3" s="7">
         <f>E3/B3</f>
-        <v>0.12324861945954073</v>
+        <v>3.2661426530774848E-2</v>
       </c>
       <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
+        <v>86840907.719999999</v>
+      </c>
+      <c r="H3" s="7">
         <f>G3/B3</f>
-        <v>0</v>
+        <v>3.9154430402010852E-2</v>
       </c>
       <c r="I3" s="2">
-        <v>827147261.16714299</v>
-      </c>
-      <c r="J3" s="3">
+        <v>223661987.09999999</v>
+      </c>
+      <c r="J3" s="7">
         <f>I3/B3</f>
-        <v>0.8030424693890843</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.10084369149754438</v>
+      </c>
+      <c r="K3" s="2">
+        <v>790450243.29999995</v>
+      </c>
+      <c r="L3" s="7">
+        <f>K3/B3</f>
+        <v>0.35639458234744481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4" si="0">I4+G4+E4+C4</f>
-        <v>1011899999.7116258</v>
+        <f t="shared" si="0"/>
+        <v>1646347936.0147882</v>
       </c>
       <c r="C4" s="2">
-        <v>72698451.924412295</v>
-      </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4" si="1">C4/B4</f>
-        <v>7.1843514127018587E-2</v>
+        <v>457190550</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.27769983488829991</v>
       </c>
       <c r="E4" s="2">
-        <v>88080897.060000002</v>
-      </c>
-      <c r="F4" s="3">
+        <v>43619317.526989803</v>
+      </c>
+      <c r="F4" s="7">
         <f t="shared" ref="F4" si="2">E4/B4</f>
-        <v>8.7045060860857351E-2</v>
+        <v>2.6494592408319452E-2</v>
       </c>
       <c r="G4" s="2">
-        <v>59114505.471834697</v>
-      </c>
-      <c r="H4" s="3">
-        <f>G4/B4</f>
-        <v>5.8419315632652749E-2</v>
+        <v>32638423.630647399</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" ref="H4" si="3">G4/B4</f>
+        <v>1.9824742338277045E-2</v>
       </c>
       <c r="I4" s="2">
-        <v>792006145.25537896</v>
-      </c>
-      <c r="J4" s="3">
-        <f t="shared" ref="J4" si="3">I4/B4</f>
-        <v>0.78269210937947142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+        <v>638471273.73983395</v>
+      </c>
+      <c r="J4" s="7">
+        <f>I4/B4</f>
+        <v>0.38781065640677487</v>
+      </c>
+      <c r="K4" s="2">
+        <v>474428371.11731702</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" ref="L4" si="4">K4/B4</f>
+        <v>0.28817017395832878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1054,21 +1276,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5048DEDB-5048-49DF-86F9-4DCBDC438843}">
   <dimension ref="A1:AU8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1211,298 +1433,298 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>-1</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>0.25</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="4">
         <v>0.26956521739130401</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="4">
         <v>0.27472527472527403</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>0.25925925925925902</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>0.26415094339622602</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>0.26966292134831399</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>0.194444444444444</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <v>0.26415094339622602</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="4">
         <v>0.30303030303030298</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="4">
         <v>0.314285714285714</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="4">
         <v>-1</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="4">
         <v>0.23076923076923</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="4">
         <v>0.26470588235294101</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="4">
         <v>0.25714285714285701</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="4">
         <v>-1</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="4">
         <v>0.22448979591836701</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="4">
         <v>0.25</v>
       </c>
-      <c r="T3" s="6">
+      <c r="T3" s="4">
         <v>-1</v>
       </c>
-      <c r="U3" s="6">
+      <c r="U3" s="4">
         <v>0.28155339805825202</v>
       </c>
-      <c r="V3" s="6">
+      <c r="V3" s="4">
         <v>0.25961538461538403</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="4">
         <v>0.26086956521739102</v>
       </c>
-      <c r="X3" s="6">
+      <c r="X3" s="4">
         <v>0.236363636363636</v>
       </c>
-      <c r="Y3" s="6">
+      <c r="Y3" s="4">
         <v>-1</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="Z3" s="4">
         <v>-1</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AA3" s="4">
         <v>0.265306122448979</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="4">
         <v>0.249999999999999</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AC3" s="4">
         <v>0.240384615384615</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AD3" s="4">
         <v>0.22772277227722701</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AE3" s="4">
         <v>0.23076923076923</v>
       </c>
-      <c r="AF3" s="7">
+      <c r="AF3" s="5">
         <v>0.30188679245283001</v>
       </c>
-      <c r="AG3" s="7">
+      <c r="AG3" s="5">
         <v>0.26041666666666602</v>
       </c>
-      <c r="AH3" s="7">
+      <c r="AH3" s="5">
         <v>-1</v>
       </c>
-      <c r="AI3" s="7">
+      <c r="AI3" s="5">
         <v>0.22950819672131101</v>
       </c>
-      <c r="AJ3" s="7">
+      <c r="AJ3" s="5">
         <v>0.35294117647058798</v>
       </c>
-      <c r="AK3" s="7">
+      <c r="AK3" s="5">
         <v>0.23958333333333301</v>
       </c>
-      <c r="AL3" s="7">
+      <c r="AL3" s="5">
         <v>-1</v>
       </c>
-      <c r="AM3" s="7">
+      <c r="AM3" s="5">
         <v>0.25892857142857101</v>
       </c>
-      <c r="AN3" s="7">
+      <c r="AN3" s="5">
         <v>0.27173913043478198</v>
       </c>
-      <c r="AO3" s="7">
+      <c r="AO3" s="5">
         <v>0.28301886792452802</v>
       </c>
-      <c r="AP3" s="7">
+      <c r="AP3" s="5">
         <v>0.24175824175824101</v>
       </c>
-      <c r="AQ3" s="7">
+      <c r="AQ3" s="5">
         <v>0.223300970873786</v>
       </c>
-      <c r="AR3" s="7">
+      <c r="AR3" s="5">
         <v>0.26470588235294101</v>
       </c>
-      <c r="AS3" s="7">
+      <c r="AS3" s="5">
         <v>-1</v>
       </c>
-      <c r="AT3" s="7">
+      <c r="AT3" s="5">
         <v>0.28301886792452802</v>
       </c>
-      <c r="AU3" s="7">
+      <c r="AU3" s="5">
         <v>0.23913043478260801</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="4">
         <v>-1</v>
       </c>
-      <c r="C4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="M4" s="6">
+      <c r="C4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="M4" s="4">
         <v>-1</v>
       </c>
-      <c r="N4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="O4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="P4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="Q4" s="6">
+      <c r="N4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="Q4" s="4">
         <v>-1</v>
       </c>
-      <c r="R4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="S4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="T4" s="6">
+      <c r="R4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="T4" s="4">
         <v>-1</v>
       </c>
-      <c r="U4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="V4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="W4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="X4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="Y4" s="6">
+      <c r="U4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="Y4" s="4">
         <v>-1</v>
       </c>
-      <c r="Z4" s="6">
+      <c r="Z4" s="4">
         <v>-1</v>
       </c>
-      <c r="AA4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="AB4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="AC4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="AD4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="AE4" s="6">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="AF4" s="7">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="AG4" s="7">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="AH4" s="7">
+      <c r="AA4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AH4" s="5">
         <v>-1</v>
       </c>
-      <c r="AI4" s="7">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="AJ4" s="7">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="AK4" s="7">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="AL4" s="7">
+      <c r="AI4" s="5">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AL4" s="5">
         <v>-1</v>
       </c>
-      <c r="AM4" s="7">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="AN4" s="7">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="AO4" s="7">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="AP4" s="7">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="AQ4" s="7">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="AR4" s="7">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="AS4" s="7">
+      <c r="AM4" s="5">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AN4" s="5">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AO4" s="5">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AP4" s="5">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AQ4" s="5">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AR4" s="5">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AS4" s="5">
         <v>-1</v>
       </c>
-      <c r="AT4" s="7">
-        <v>0.26600011232058701</v>
-      </c>
-      <c r="AU4" s="7">
-        <v>0.26600011232058701</v>
-      </c>
-    </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="AT4" s="5">
+        <v>0.26600011232058701</v>
+      </c>
+      <c r="AU4" s="5">
+        <v>0.26600011232058701</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -1543,7 +1765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
